--- a/Mainboard/Project Outputs for Mainboard/Folder Structure/Bill of Materials-Mainboard.xlsx
+++ b/Mainboard/Project Outputs for Mainboard/Folder Structure/Bill of Materials-Mainboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vlad\Documents\GitHub\CalibratorPCB\Mainboard\Project Outputs for Mainboard\Folder Structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCED7D35-BC4D-44EE-A477-92E1DC7B30F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABA95C6B-B411-4D60-9343-8B90B841067A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9540" yWindow="3795" windowWidth="21600" windowHeight="11385" xr2:uid="{E7A23027-3B20-4891-8F19-16F077FD9796}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{57C4826F-24EA-4BF8-BB22-9238C4BC68AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-Mainboard" sheetId="1" r:id="rId1"/>
@@ -891,7 +891,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1BBBADC-E859-4CB8-BDB9-8D80F2E29F81}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28A371DE-094B-4E4D-9BB4-2E4B5F3773A0}">
   <dimension ref="A1:D63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Mainboard/Project Outputs for Mainboard/Folder Structure/Bill of Materials-Mainboard.xlsx
+++ b/Mainboard/Project Outputs for Mainboard/Folder Structure/Bill of Materials-Mainboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vlad\Documents\GitHub\CalibratorPCB\Mainboard\Project Outputs for Mainboard\Folder Structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABA95C6B-B411-4D60-9343-8B90B841067A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C75B7796-631D-41EC-9426-C3E6BA261D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{57C4826F-24EA-4BF8-BB22-9238C4BC68AD}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{835A9A0D-54F3-4757-BA09-71D6DFAFB5DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-Mainboard" sheetId="1" r:id="rId1"/>
@@ -891,7 +891,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28A371DE-094B-4E4D-9BB4-2E4B5F3773A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4904515-646C-4227-BE8B-2999431A599F}">
   <dimension ref="A1:D63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Mainboard/Project Outputs for Mainboard/Folder Structure/Bill of Materials-Mainboard.xlsx
+++ b/Mainboard/Project Outputs for Mainboard/Folder Structure/Bill of Materials-Mainboard.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vlad\Documents\GitHub\CalibratorPCB\Mainboard\Project Outputs for Mainboard\Folder Structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C75B7796-631D-41EC-9426-C3E6BA261D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C26CD997-8DC5-4526-85D9-C74FEC6341A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{835A9A0D-54F3-4757-BA09-71D6DFAFB5DD}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{99DCE846-626F-4368-9AF5-D81F5A57A4FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-Mainboard" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="177">
   <si>
     <t>Designator</t>
   </si>
@@ -52,127 +52,169 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>C1, C8</t>
+    <t>C1, C2, C3, C4, C5, C6, C7, C8, C12, C13, C14, C15, C16, C19, C21, C23, C25, C26, C27, C28, C30, C40_DAC1_X, C40_DAC1_Y, C40_DAC2_X, C40_DAC2_Y, C42, C44, C45, C46, C49, C50, C51, C52, C53, C54, C56_Comparator1, C56_Comparator2, C57_Comparator1, C57_Comparator2, C58_Comparator1, C58_Comparator2, C59_Comparator1, C59_Comparator2, C60_Comparator1, C60_Comparator2, C61_Comparator1, C61_Comparator2, C66</t>
+  </si>
+  <si>
+    <t>SMD CHIP CERAMIC CAPACITOR CAP0402 100nF 10% 50V  CL05B104KB54PNC</t>
+  </si>
+  <si>
+    <t>CAP0402</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMD CHIP CERAMIC CAPACITOR CAPC0805N 100 nF  *  </t>
+  </si>
+  <si>
+    <t>CAPC0805N</t>
+  </si>
+  <si>
+    <t>C10, C11, C17, C29</t>
+  </si>
+  <si>
+    <t>SMD CHIP CERAMIC CAPACITOR CAPC0603N 10uF 10% 10V  CL10A106KP8NNNC</t>
+  </si>
+  <si>
+    <t>CAPC0603N</t>
+  </si>
+  <si>
+    <t>C18, C20, C22, C24</t>
+  </si>
+  <si>
+    <t>SMD CHIP CERAMIC CAPACITOR CAP0402 4.7uF 20% 10V  CL05A475MP5NRNC</t>
+  </si>
+  <si>
+    <t>C31, C32, C34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMD CHIP CERAMIC CAPACITOR CAPC3216N 10uF  *  </t>
+  </si>
+  <si>
+    <t>CAPC3216N</t>
+  </si>
+  <si>
+    <t>C33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMD CHIP CERAMIC CAPACITOR CAPC3216N 100nF  *  </t>
+  </si>
+  <si>
+    <t>C35</t>
+  </si>
+  <si>
+    <t>SMD CHIP TANTALUM CAPACITOR TYPEB 100uF 20% 10V  T491B107M010AT</t>
+  </si>
+  <si>
+    <t>TYPEB</t>
+  </si>
+  <si>
+    <t>C36, C37, C38, C39</t>
+  </si>
+  <si>
+    <t>SMD CHIP TANTALUM CAPACITOR TYPEA 10uF 10% 16V  TAJA106K016RNJ</t>
+  </si>
+  <si>
+    <t>TYPEA</t>
+  </si>
+  <si>
+    <t>C41_DAC1_X, C41_DAC1_Y, C41_DAC2_X, C41_DAC2_Y, C47, C48</t>
+  </si>
+  <si>
+    <t>SMD CHIP CERAMIC CAPACITOR CAP0402 10pF  50V  CL05C100JB5NNNC</t>
+  </si>
+  <si>
+    <t>C43</t>
+  </si>
+  <si>
+    <t>SMD CHIP CERAMIC CAPACITOR CAP0402 3.3uF  6.3V  C1005X5R0J335MTJ00E</t>
+  </si>
+  <si>
+    <t>C55_Comparator1, C55_Comparator2</t>
   </si>
   <si>
     <t>SMD CHIP CERAMIC CAPACITOR CAP0402 0uF 10% 50V  CL05B104KB54PNC</t>
   </si>
   <si>
-    <t>CAP0402</t>
-  </si>
-  <si>
-    <t>C2, C3, C4, C5, C6, C7, C9, C10, C11, C12, C13, C14, C15, C17, C19, C21, C31, C32, C33, C34, C35, C36, C37, C38, C39, C40, C43, C44, C45, C46, C47, C50, C52, C54, C56, C57, C58, C59, C61, C63, C64, C65, C68, C69, C70, C71, C72, C73, C74</t>
-  </si>
-  <si>
-    <t>SMD CHIP CERAMIC CAPACITOR CAP0402 100nF 10% 50V  CL05B104KB54PNC</t>
-  </si>
-  <si>
-    <t>C16, C18, C20, C22, C66, C67</t>
-  </si>
-  <si>
-    <t>SMD CHIP CERAMIC CAPACITOR CAP0402 10pF  50V  CL05C100JB5NNNC</t>
-  </si>
-  <si>
-    <t>C23, C24, C25, C26, C27, C28, C29, C30</t>
+    <t>C62_DelayLine1, C62_DelayLine2, C63_DelayLine1, C63_DelayLine2, C64_DelayLine1, C64_DelayLine2, C65_DelayLine1, C65_DelayLine2</t>
   </si>
   <si>
     <t xml:space="preserve">SMD CHIP CERAMIC CAPACITOR CAP0402 100nF  *  </t>
   </si>
   <si>
-    <t>C41, C42, C48, C60</t>
-  </si>
-  <si>
-    <t>SMD CHIP CERAMIC CAPACITOR CAPC0603N 10uF 10% 10V  CL10A106KP8NNNC</t>
-  </si>
-  <si>
-    <t>CAPC0603N</t>
-  </si>
-  <si>
-    <t>C49, C51, C53, C55</t>
-  </si>
-  <si>
-    <t>SMD CHIP CERAMIC CAPACITOR CAP0402 4.7uF 20% 10V  CL05A475MP5NRNC</t>
-  </si>
-  <si>
-    <t>C62</t>
-  </si>
-  <si>
-    <t>SMD CHIP CERAMIC CAPACITOR CAP0402 3.3uF  6.3V  C1005X5R0J335MTJ00E</t>
-  </si>
-  <si>
-    <t>C75, C76, C78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMD CHIP CERAMIC CAPACITOR CAPC3216N 10uF  *  </t>
-  </si>
-  <si>
-    <t>CAPC3216N</t>
-  </si>
-  <si>
-    <t>C77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMD CHIP CERAMIC CAPACITOR CAPC3216N 100nF  *  </t>
-  </si>
-  <si>
-    <t>C79</t>
-  </si>
-  <si>
-    <t>SMD CHIP TANTALUM CAPACITOR TYPEB 100uF 20% 10V  T491B107M010AT</t>
-  </si>
-  <si>
-    <t>TYPEB</t>
-  </si>
-  <si>
-    <t>C80, C81, C82, C83</t>
-  </si>
-  <si>
-    <t>SMD CHIP TANTALUM CAPACITOR TYPEA 10uF 10% 16V  TAJA106K016RNJ</t>
-  </si>
-  <si>
-    <t>TYPEA</t>
+    <t>C67, C68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMD CHIP TANTALUM CAPACITOR TYPEA 10 uF    </t>
   </si>
   <si>
     <t>D1</t>
   </si>
   <si>
+    <t>GW1N-UV9QN88I5</t>
+  </si>
+  <si>
+    <t>QFN88_0.4pitch</t>
+  </si>
+  <si>
+    <t>D2, D3, D10, D11</t>
+  </si>
+  <si>
+    <t>SMD CHIP LED LED603 Green    19-217/GHC-YR1S2/3T</t>
+  </si>
+  <si>
+    <t>LED603</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
     <t>W25Q128JVSIM</t>
   </si>
   <si>
     <t>SOIC-8_208MIL_M</t>
   </si>
   <si>
-    <t>D2, D3, D5, D6</t>
-  </si>
-  <si>
-    <t>SMD CHIP LED LED603 Green    19-217/GHC-YR1S2/3T</t>
-  </si>
-  <si>
-    <t>LED603</t>
-  </si>
-  <si>
-    <t>D4</t>
-  </si>
-  <si>
-    <t>GW1N-UV9QN88I5</t>
-  </si>
-  <si>
-    <t>QFN88_0.4pitch</t>
-  </si>
-  <si>
-    <t>D7, D8, D10, D11</t>
+    <t>D5, D6, D8, D9, D12</t>
   </si>
   <si>
     <t xml:space="preserve">SMD CHIP LED LED603 Green    </t>
   </si>
   <si>
-    <t>D9</t>
+    <t>D7</t>
   </si>
   <si>
     <t>SMD CHIP LED LED603 Green  3.3V  19-217/GHC-YR1S2/3T</t>
   </si>
   <si>
-    <t>DA1, DA2</t>
+    <t>DA1</t>
+  </si>
+  <si>
+    <t>SMD Switch Power WSON TPS65133DPDR    TPS65133DPDR</t>
+  </si>
+  <si>
+    <t>FP-DPD0012A-IPC_A</t>
+  </si>
+  <si>
+    <t>DA2, DA3</t>
+  </si>
+  <si>
+    <t>SMD LDO SOT-223 3.3V  15V  LM1117MPX-3.3/NOPB</t>
+  </si>
+  <si>
+    <t>SOT-223</t>
+  </si>
+  <si>
+    <t>DA4_DAC1_X, DA4_DAC1_Y, DA4_DAC2_X, DA4_DAC2_Y</t>
+  </si>
+  <si>
+    <t>SMD DAC MSOP-8 AD5662    AD5662BRMZ</t>
+  </si>
+  <si>
+    <t>TSOP65P490X110-8N</t>
+  </si>
+  <si>
+    <t>DA5_Comparator1, DA5_Comparator2</t>
   </si>
   <si>
     <t>SMD Comparator LFCSP-16 Value    ADCMP582BCPZ</t>
@@ -181,340 +223,352 @@
     <t>ADI-CP-16-3_N</t>
   </si>
   <si>
-    <t>DA3, DA4, DA5, DA6</t>
-  </si>
-  <si>
-    <t>SMD DAC MSOP-8 AD5662    AD5662BRMZ</t>
-  </si>
-  <si>
-    <t>TSOP65P490X110-8N</t>
+    <t>DA6</t>
+  </si>
+  <si>
+    <t>SMD Amplifier SOIC-8 Value    AD8032ARZ</t>
+  </si>
+  <si>
+    <t>SOIC-8_M</t>
   </si>
   <si>
     <t>DA7</t>
   </si>
   <si>
-    <t>SMD Amplifier SOIC-8 Value    AD8032ARZ</t>
-  </si>
-  <si>
-    <t>SOIC-8_M</t>
-  </si>
-  <si>
-    <t>DA8</t>
-  </si>
-  <si>
-    <t>SMD Switch Power WSON TPS65133DPDR    TPS65133DPDR</t>
-  </si>
-  <si>
-    <t>FP-DPD0012A-IPC_A</t>
-  </si>
-  <si>
-    <t>DA9, DA10</t>
-  </si>
-  <si>
-    <t>SMD LDO SOT-223 3.3V  15V  LM1117MPX-3.3/NOPB</t>
-  </si>
-  <si>
-    <t>SOT-223</t>
-  </si>
-  <si>
-    <t>DD1, DD2</t>
+    <t>SMD LDO SOT-223 3.3V  3.3V  LM1117MPX-3.3/NOPB</t>
+  </si>
+  <si>
+    <t>DD1, DD5, DD6</t>
+  </si>
+  <si>
+    <t>D3V3X8U9LP3810</t>
+  </si>
+  <si>
+    <t>U-DFN3810-9</t>
+  </si>
+  <si>
+    <t>DD2</t>
+  </si>
+  <si>
+    <t>SMD PLL VQFN32 Value    CDCM61004</t>
+  </si>
+  <si>
+    <t>QFN-32_N_TP</t>
+  </si>
+  <si>
+    <t>DD4</t>
+  </si>
+  <si>
+    <t>FT2232HL</t>
+  </si>
+  <si>
+    <t>LQFP64</t>
+  </si>
+  <si>
+    <t>DD7_DelayLine1, DD7_DelayLine2</t>
   </si>
   <si>
     <t>SMD Delay Line QFN-32 Value    MC100EP196BMNG</t>
   </si>
   <si>
-    <t>QFN-32_N_TP</t>
-  </si>
-  <si>
-    <t>DD3, DD7, DD8</t>
-  </si>
-  <si>
-    <t>D3V3X8U9LP3810</t>
-  </si>
-  <si>
-    <t>U-DFN3810-9</t>
-  </si>
-  <si>
-    <t>DD4</t>
-  </si>
-  <si>
-    <t>OT322525MJBA4SL</t>
+    <t>FU1</t>
+  </si>
+  <si>
+    <t>SMD Fuse OMNI-BLOK 3A  125 V  0154003.DR</t>
+  </si>
+  <si>
+    <t>FP-0154-MFG</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>SMD VCTCXO LFTVXO076346REEL_IQD Value    LFTVXO076346REEL</t>
+  </si>
+  <si>
+    <t>LFTVXO076346REEL_IQD</t>
+  </si>
+  <si>
+    <t>L1, L2, L3, L4</t>
+  </si>
+  <si>
+    <t>SMD Ferrite Beads CAPC0603N 220R 25%   BLM18KG221SN1D</t>
+  </si>
+  <si>
+    <t>L5</t>
+  </si>
+  <si>
+    <t>SMD INDUCTOR 0805 120R @ 100MHz    PBY201209T-121Y-N</t>
+  </si>
+  <si>
+    <t>IND-0805_N</t>
+  </si>
+  <si>
+    <t>L6, L7</t>
+  </si>
+  <si>
+    <t>SMD INDUCTOR ind_SRN8040 4.7uH    SRN8040-4R7Y</t>
+  </si>
+  <si>
+    <t>ind_SRN8040</t>
+  </si>
+  <si>
+    <t>L8</t>
+  </si>
+  <si>
+    <t>SMD INDUCTOR CAPC0603N 50 Ohm @ 100MHz    CBW160808U500T</t>
+  </si>
+  <si>
+    <t>L9, L10</t>
+  </si>
+  <si>
+    <t>SMD Ferrite Beads CAPC0603N 220 Ohm 25%   BLM18KG221SN1D</t>
+  </si>
+  <si>
+    <t>R1, R2, R4, R5, R7, R8, R27</t>
+  </si>
+  <si>
+    <t>SMD CHIP RESISTOR RESC0402(1005)_M 1K 1% 50V 100ppm/C 0402WGF1001TCE</t>
+  </si>
+  <si>
+    <t>RESC0402(1005)_M</t>
+  </si>
+  <si>
+    <t>R3, R56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMD CHIP RESISTOR RESC0603N 240    </t>
+  </si>
+  <si>
+    <t>RESC0603N</t>
+  </si>
+  <si>
+    <t>R6, R57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMD CHIP RESISTOR RESC0603N 160    </t>
+  </si>
+  <si>
+    <t>R9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMD CHIP RESISTOR RESC0402(1005)_M 1K    </t>
+  </si>
+  <si>
+    <t>R10, R11, R12</t>
+  </si>
+  <si>
+    <t>SMD CHIP RESISTOR RESC0402(1005)_M 4.7K    0402WGF4701TCE</t>
+  </si>
+  <si>
+    <t>R13</t>
+  </si>
+  <si>
+    <t>SMD CHIP RESISTOR RESC0402(1005)_M 33R 1% 50V 200ppm/C 0402WGF330JTCE</t>
+  </si>
+  <si>
+    <t>R14, R23, R35</t>
+  </si>
+  <si>
+    <t>SMD CHIP RESISTOR RESC0402(1005)_M 10k    0402WGF1002TCE</t>
+  </si>
+  <si>
+    <t>R15, R48_DelayLine1, R48_DelayLine2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMD CHIP RESISTOR RESC0402(1005)_M 100R    </t>
+  </si>
+  <si>
+    <t>R16, R17, R18, R19, R21</t>
+  </si>
+  <si>
+    <t>SMD CHIP RESISTOR RESC0402(1005)_M DNI    0402WGF0000TCE</t>
+  </si>
+  <si>
+    <t>R20, R22</t>
+  </si>
+  <si>
+    <t>SMD CHIP RESISTOR RESC0402(1005)_M 0    0402WGF0000TCE</t>
+  </si>
+  <si>
+    <t>R24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMD CHIP RESISTOR RESC0603N 5.1 к    </t>
+  </si>
+  <si>
+    <t>R25, R26, R42</t>
+  </si>
+  <si>
+    <t>SMD CHIP RESISTOR RESC0402(1005)_M 4.7K 1% 50V 100ppm/C 0402WGF4701TCE</t>
+  </si>
+  <si>
+    <t>R28, R29, R32, R33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMD CHIP RESISTOR RESC0603N 10K    </t>
+  </si>
+  <si>
+    <t>R30, R31</t>
+  </si>
+  <si>
+    <t>SMD CHIP RESISTOR RESC0603N 10kOhm 1% 75V  0603WAF1002T5E</t>
+  </si>
+  <si>
+    <t>R34</t>
+  </si>
+  <si>
+    <t>SMD CHIP RESISTOR RESC0402(1005)_M 12k    0402WGF1202TCE</t>
+  </si>
+  <si>
+    <t>R36, R37</t>
+  </si>
+  <si>
+    <t>SMD CHIP RESISTOR RESC0402(1005)_M 220R    0402WGF2200TCE</t>
+  </si>
+  <si>
+    <t>R38, R39, R40, R41</t>
+  </si>
+  <si>
+    <t>SMD CHIP RESISTOR RESC0402(1005)_M 22R 1% 50V 200ppm/C 0402WGF220JTCE</t>
+  </si>
+  <si>
+    <t>R43_Comparator1, R43_Comparator2, R44_Comparator1, R44_Comparator2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMD CHIP RESISTOR RESC0402(1005)_M 50R    </t>
+  </si>
+  <si>
+    <t>R45_Comparator1, R45_Comparator2</t>
+  </si>
+  <si>
+    <t>SMD CHIP RESISTOR RESC0402(1005)_M 470R 1%   0402WGF4700TCE</t>
+  </si>
+  <si>
+    <t>R46_Comparator1, R46_Comparator2</t>
+  </si>
+  <si>
+    <t>SMD CHIP RESISTOR RESC0603N 240    0603WAF2400T5E</t>
+  </si>
+  <si>
+    <t>R47_Comparator1, R47_Comparator2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMD CHIP RESISTOR RESC0603N 160R    </t>
+  </si>
+  <si>
+    <t>R49, R50, R51, R52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMD CHIP RESISTOR RESC0402(1005)_M 0R    </t>
+  </si>
+  <si>
+    <t>R53</t>
+  </si>
+  <si>
+    <t>TH RES TRIM_3006P-1-103LF 5.1 к    TRIM_3006P-1-103LF</t>
+  </si>
+  <si>
+    <t>TRIM_3006P-1-103LF</t>
+  </si>
+  <si>
+    <t>R54, R55, R58, R59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMD CHIP RESISTOR RESC0402(1005)_M 50    </t>
+  </si>
+  <si>
+    <t>R60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMD CHIP RESISTOR RESC0402(1005)_M 4.7K    </t>
+  </si>
+  <si>
+    <t>SB1</t>
+  </si>
+  <si>
+    <t>SKRKAEE020</t>
+  </si>
+  <si>
+    <t>SW_SKRKAEE020</t>
+  </si>
+  <si>
+    <t>SW1</t>
+  </si>
+  <si>
+    <t>TH Slide_Switch KLS7-SS03-12D02-EG-3.0 Value    KLS7-SS03-12D02-EG-3.0</t>
+  </si>
+  <si>
+    <t>KLS7-SS03-12D02-EG-3.0</t>
+  </si>
+  <si>
+    <t>VD1</t>
+  </si>
+  <si>
+    <t>SMD Diode_zener DO-214AA 6V 5% 6V  SMBJ6.0A</t>
+  </si>
+  <si>
+    <t>DO-214AA</t>
+  </si>
+  <si>
+    <t>X1, X10</t>
+  </si>
+  <si>
+    <t>DIP CONNECTOR CONNPLS4     PLS4</t>
+  </si>
+  <si>
+    <t>PLS4</t>
+  </si>
+  <si>
+    <t>X2, X3</t>
+  </si>
+  <si>
+    <t>SMD SMA  Value    60311042114502</t>
+  </si>
+  <si>
+    <t>60311042114502</t>
+  </si>
+  <si>
+    <t>X4, X5, X6</t>
+  </si>
+  <si>
+    <t>SMD SMA  =Value    60311042114502</t>
+  </si>
+  <si>
+    <t>X7</t>
+  </si>
+  <si>
+    <t>DIP CONNECTOR PJ-002AH     PJ-002AH</t>
+  </si>
+  <si>
+    <t>PJ-002AH</t>
+  </si>
+  <si>
+    <t>X8</t>
+  </si>
+  <si>
+    <t>DIP CONNECTOR  DG390-5.0-02P    DG390-5.0-02P</t>
+  </si>
+  <si>
+    <t>DG390-5.0-02P</t>
+  </si>
+  <si>
+    <t>X9</t>
+  </si>
+  <si>
+    <t>SMD/TH CONNECTOR AMPHENOL_10118194-0001LF USB Micro-B Connector    10118194-0001LF</t>
+  </si>
+  <si>
+    <t>AMPHENOL_10118194-0001LF</t>
+  </si>
+  <si>
+    <t>ZQ1</t>
+  </si>
+  <si>
+    <t>X3S012000BA1HA-X</t>
   </si>
   <si>
     <t>TSX-3225_V</t>
-  </si>
-  <si>
-    <t>DD5</t>
-  </si>
-  <si>
-    <t>SMD PLL VQFN32 Value    CDCM61004</t>
-  </si>
-  <si>
-    <t>DD6</t>
-  </si>
-  <si>
-    <t>FT2232HL</t>
-  </si>
-  <si>
-    <t>LQFP64</t>
-  </si>
-  <si>
-    <t>FU1</t>
-  </si>
-  <si>
-    <t>SMD Fuse OMNI-BLOK 3A  125 V  0154003.DR</t>
-  </si>
-  <si>
-    <t>FP-0154-MFG</t>
-  </si>
-  <si>
-    <t>L1, L2, L3, L4</t>
-  </si>
-  <si>
-    <t>SMD Ferrite Beads CAPC0603N 220R 25%   BLM18KG221SN1D</t>
-  </si>
-  <si>
-    <t>L5</t>
-  </si>
-  <si>
-    <t>SMD INDUCTOR 0805 120R @ 100MHz    PBY201209T-121Y-N</t>
-  </si>
-  <si>
-    <t>IND-0805_N</t>
-  </si>
-  <si>
-    <t>L6</t>
-  </si>
-  <si>
-    <t>SMD INDUCTOR CAPC0603N 50 Ohm @ 100MHz    CBW160808U500T</t>
-  </si>
-  <si>
-    <t>L7, L8</t>
-  </si>
-  <si>
-    <t>SMD Ferrite Beads CAPC0603N 220 Ohm 25%   BLM18KG221SN1D</t>
-  </si>
-  <si>
-    <t>L9, L10</t>
-  </si>
-  <si>
-    <t>SMD INDUCTOR ind_SRN8040 4.7uH    SRN8040-4R7Y</t>
-  </si>
-  <si>
-    <t>ind_SRN8040</t>
-  </si>
-  <si>
-    <t>R1, R2, R6, R7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMD CHIP RESISTOR RESC0402(1005)_M 50R    </t>
-  </si>
-  <si>
-    <t>RESC0402(1005)_M</t>
-  </si>
-  <si>
-    <t>R3, R8</t>
-  </si>
-  <si>
-    <t>SMD CHIP RESISTOR RESC0402(1005)_M 470R 1%   0402WGF4700TCE</t>
-  </si>
-  <si>
-    <t>R4, R9</t>
-  </si>
-  <si>
-    <t>SMD CHIP RESISTOR RESC0603N 240    0603WAF2400T5E</t>
-  </si>
-  <si>
-    <t>RESC0603N</t>
-  </si>
-  <si>
-    <t>R5, R10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMD CHIP RESISTOR RESC0603N 160R    </t>
-  </si>
-  <si>
-    <t>R11, R12, R18, R21, R30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMD CHIP RESISTOR RESC0402(1005)_M 100R    </t>
-  </si>
-  <si>
-    <t>R13, R14, R48</t>
-  </si>
-  <si>
-    <t>SMD CHIP RESISTOR RESC0402(1005)_M 4.7K 1% 50V 100ppm/C 0402WGF4701TCE</t>
-  </si>
-  <si>
-    <t>R15, R16, R17, R19, R20, R22, R23</t>
-  </si>
-  <si>
-    <t>SMD CHIP RESISTOR RESC0402(1005)_M 1K 1% 50V 100ppm/C 0402WGF1001TCE</t>
-  </si>
-  <si>
-    <t>R24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMD CHIP RESISTOR RESC0402(1005)_M 1K    </t>
-  </si>
-  <si>
-    <t>R25, R26, R27</t>
-  </si>
-  <si>
-    <t>SMD CHIP RESISTOR RESC0402(1005)_M 4.7K    0402WGF4701TCE</t>
-  </si>
-  <si>
-    <t>R28</t>
-  </si>
-  <si>
-    <t>SMD CHIP RESISTOR RESC0402(1005)_M 33R 1% 50V 200ppm/C 0402WGF330JTCE</t>
-  </si>
-  <si>
-    <t>R29, R38, R39, R41</t>
-  </si>
-  <si>
-    <t>SMD CHIP RESISTOR RESC0402(1005)_M 10k    0402WGF1002TCE</t>
-  </si>
-  <si>
-    <t>R31, R32, R33, R34, R36</t>
-  </si>
-  <si>
-    <t>SMD CHIP RESISTOR RESC0402(1005)_M 0R    0402WGF0000TCE</t>
-  </si>
-  <si>
-    <t>R35, R37</t>
-  </si>
-  <si>
-    <t>SMD CHIP RESISTOR RESC0402(1005)_M DNI    0402WGF0000TCE</t>
-  </si>
-  <si>
-    <t>R40</t>
-  </si>
-  <si>
-    <t>SMD CHIP RESISTOR RESC0402(1005)_M 12k    0402WGF1202TCE</t>
-  </si>
-  <si>
-    <t>R42, R43</t>
-  </si>
-  <si>
-    <t>SMD CHIP RESISTOR RESC0402(1005)_M 220R    0402WGF2200TCE</t>
-  </si>
-  <si>
-    <t>R44, R45, R46, R47</t>
-  </si>
-  <si>
-    <t>SMD CHIP RESISTOR RESC0402(1005)_M 22R 1% 50V 200ppm/C 0402WGF220JTCE</t>
-  </si>
-  <si>
-    <t>R49, R50, R51, R52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMD CHIP RESISTOR RESC0402(1005)_M 0R    </t>
-  </si>
-  <si>
-    <t>R53, R54, R57, R58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMD CHIP RESISTOR RESC0603N 10K    </t>
-  </si>
-  <si>
-    <t>R55, R56</t>
-  </si>
-  <si>
-    <t>SMD CHIP RESISTOR RESC0603N 10kOhm 1% 75V  0603WAF1002T5E</t>
-  </si>
-  <si>
-    <t>SB1</t>
-  </si>
-  <si>
-    <t>SKRKAEE020</t>
-  </si>
-  <si>
-    <t>SW_SKRKAEE020</t>
-  </si>
-  <si>
-    <t>SW1</t>
-  </si>
-  <si>
-    <t>TH Slide_Switch KLS7-SS03-12D02-EG-3.0 Value    KLS7-SS03-12D02-EG-3.0</t>
-  </si>
-  <si>
-    <t>KLS7-SS03-12D02-EG-3.0</t>
-  </si>
-  <si>
-    <t>VD1</t>
-  </si>
-  <si>
-    <t>SMD Diode_zener DO-214AA 6V 5% 6V  SMBJ6.0A</t>
-  </si>
-  <si>
-    <t>DO-214AA</t>
-  </si>
-  <si>
-    <t>X1</t>
-  </si>
-  <si>
-    <t>DIP CONNECTOR CONNPLS2     PLS2</t>
-  </si>
-  <si>
-    <t>PLS2</t>
-  </si>
-  <si>
-    <t>X2, X3</t>
-  </si>
-  <si>
-    <t>TH CONNECTOR SMA_Vertical Value    5-1814832-1</t>
-  </si>
-  <si>
-    <t>SMA_Vertical</t>
-  </si>
-  <si>
-    <t>X4</t>
-  </si>
-  <si>
-    <t>SMD/TH CONNECTOR AMPHENOL_10118194-0001LF USB Micro-B Connector    10118194-0001LF</t>
-  </si>
-  <si>
-    <t>AMPHENOL_10118194-0001LF</t>
-  </si>
-  <si>
-    <t>X5</t>
-  </si>
-  <si>
-    <t>DIP CONNECTOR CONNPLS4     PLS4</t>
-  </si>
-  <si>
-    <t>PLS4</t>
-  </si>
-  <si>
-    <t>X6</t>
-  </si>
-  <si>
-    <t>DIP CONNECTOR PJ-002AH     PJ-002AH</t>
-  </si>
-  <si>
-    <t>PJ-002AH</t>
-  </si>
-  <si>
-    <t>X7</t>
-  </si>
-  <si>
-    <t>DIP CONNECTOR  DG390-5.0-02P    DG390-5.0-02P</t>
-  </si>
-  <si>
-    <t>DG390-5.0-02P</t>
-  </si>
-  <si>
-    <t>X8, X9, X10</t>
-  </si>
-  <si>
-    <t>TH CONNECTOR SMA_Vertical =Value    5-1814832-1</t>
-  </si>
-  <si>
-    <t>ZQ1</t>
-  </si>
-  <si>
-    <t>X3S012000BA1HA-X</t>
   </si>
 </sst>
 </file>
@@ -891,8 +945,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4904515-646C-4227-BE8B-2999431A599F}">
-  <dimension ref="A1:D63"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3331D21E-B2FC-434E-A29B-E0D2C858053C}">
+  <dimension ref="A1:D71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -929,7 +983,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="1">
-        <v>2</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -940,77 +994,77 @@
         <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1">
-        <v>49</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D6" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="D7" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -1018,41 +1072,41 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D9" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
@@ -1060,30 +1114,30 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D12" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1094,21 +1148,21 @@
         <v>35</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D14" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
@@ -1116,13 +1170,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="D16" s="1">
         <v>4</v>
@@ -1136,7 +1190,7 @@
         <v>43</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
@@ -1144,16 +1198,16 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D18" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1164,21 +1218,21 @@
         <v>48</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D19" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="D20" s="1">
         <v>1</v>
@@ -1186,41 +1240,41 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="D21" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="D22" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="D23" s="1">
         <v>2</v>
@@ -1228,27 +1282,27 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="D24" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="C25" s="2" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="D25" s="1">
         <v>1</v>
@@ -1256,27 +1310,27 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="D26" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="D27" s="1">
         <v>1</v>
@@ -1284,13 +1338,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="D28" s="1">
         <v>1</v>
@@ -1298,27 +1352,27 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="C29" s="2" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="D29" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="D30" s="1">
         <v>1</v>
@@ -1326,13 +1380,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="D31" s="1">
         <v>1</v>
@@ -1346,10 +1400,10 @@
         <v>84</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D32" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1363,7 +1417,7 @@
         <v>87</v>
       </c>
       <c r="D33" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1377,7 +1431,7 @@
         <v>90</v>
       </c>
       <c r="D34" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1388,10 +1442,10 @@
         <v>92</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="D35" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1402,7 +1456,7 @@
         <v>94</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="D36" s="1">
         <v>2</v>
@@ -1410,16 +1464,16 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="D37" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1430,105 +1484,105 @@
         <v>99</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D38" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="D39" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D40" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D41" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D42" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D43" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D44" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D45" s="1">
         <v>5</v>
@@ -1536,13 +1590,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D46" s="1">
         <v>2</v>
@@ -1550,13 +1604,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D47" s="1">
         <v>1</v>
@@ -1564,27 +1618,27 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D48" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D49" s="1">
         <v>4</v>
@@ -1592,41 +1646,41 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D50" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D51" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D52" s="1">
         <v>2</v>
@@ -1634,16 +1688,16 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="D53" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1654,49 +1708,49 @@
         <v>132</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c r="D54" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="C55" s="2" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="D55" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="D56" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="D57" s="1">
         <v>2</v>
@@ -1704,27 +1758,27 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>145</v>
+        <v>97</v>
       </c>
       <c r="D58" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D59" s="1">
         <v>1</v>
@@ -1732,27 +1786,27 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>151</v>
+        <v>97</v>
       </c>
       <c r="D60" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>154</v>
+        <v>97</v>
       </c>
       <c r="D61" s="1">
         <v>1</v>
@@ -1760,29 +1814,141 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="D62" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D63" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D64" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B65" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D63" s="1">
+      <c r="C65" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D65" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D66" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D67" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D68" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D69" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D70" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D71" s="1">
         <v>1</v>
       </c>
     </row>
